--- a/ShieldProperties.xlsx
+++ b/ShieldProperties.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/340ce7d50b8be808/Documents/4th year/GDP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalgl\OneDrive\Documents\4th year\GDP\Space-Shield-GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{E3A025D6-251C-4D72-AB12-D170FD2A58D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27E9AC1D-D1B0-4C29-903D-084BB6D68F6D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F14175-8330-4B1F-8F46-6B760DC56339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32055" yWindow="1635" windowWidth="18255" windowHeight="13725" activeTab="1" xr2:uid="{B6949EC2-AF5B-451F-98AE-8192F768DFD8}"/>
+    <workbookView xWindow="1890" yWindow="4215" windowWidth="33750" windowHeight="17970" activeTab="1" xr2:uid="{B6949EC2-AF5B-451F-98AE-8192F768DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Whipple" sheetId="1" r:id="rId1"/>
     <sheet name="HC SW" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>Variable</t>
   </si>
@@ -598,7 +600,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +641,8 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1.45</v>
+        <f xml:space="preserve"> 0.145 * (0.7/2.78)</f>
+        <v>3.6510791366906471E-2</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -695,7 +698,8 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.45</v>
+        <f>C3</f>
+        <v>3.6510791366906471E-2</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -709,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -723,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -732,4 +736,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9572440E-8225-4077-9F34-027A80184124}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2.78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>59.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A937E40-EF21-4254-8B70-3DBC2FC40B5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ShieldProperties.xlsx
+++ b/ShieldProperties.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalgl\OneDrive\Documents\4th year\GDP\Space-Shield-GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/340ce7d50b8be808/Documents/4th year/GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F14175-8330-4B1F-8F46-6B760DC56339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3115628-3893-4B4A-B0C9-CC819B420DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="4215" windowWidth="33750" windowHeight="17970" activeTab="1" xr2:uid="{B6949EC2-AF5B-451F-98AE-8192F768DFD8}"/>
+    <workbookView xWindow="32325" yWindow="1635" windowWidth="18465" windowHeight="9180" activeTab="2" xr2:uid="{B6949EC2-AF5B-451F-98AE-8192F768DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Whipple" sheetId="1" r:id="rId1"/>
     <sheet name="HC SW" sheetId="2" r:id="rId2"/>
-    <sheet name="test" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="SRLtest93" sheetId="4" r:id="rId3"/>
+    <sheet name="whip_test96" sheetId="3" r:id="rId4"/>
+    <sheet name="whip_test99" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="26">
   <si>
     <t>Variable</t>
   </si>
@@ -105,6 +106,15 @@
   </si>
   <si>
     <t>ksi</t>
+  </si>
+  <si>
+    <t>Areal density of shield (not inc. wall)</t>
+  </si>
+  <si>
+    <t>Areal density of shield (inc. wall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areal density of shield </t>
   </si>
 </sst>
 </file>
@@ -459,15 +469,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -506,7 +516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -520,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -534,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -548,7 +558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -562,7 +572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -576,7 +586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -599,16 +609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575D4AE4-3F5D-46B7-98D6-0FF2FB8690D9}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -633,7 +643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -648,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -662,9 +672,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -676,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -690,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -705,7 +715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -719,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -742,16 +752,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9572440E-8225-4077-9F34-027A80184124}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -770,13 +780,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -790,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -804,21 +814,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.70169999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -832,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -840,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -860,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -881,17 +891,296 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A937E40-EF21-4254-8B70-3DBC2FC40B5D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2.78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>56.9998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB772BF-B002-428B-A323-0220E9F6D77C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5.3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2.78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>56.9998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1.45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ShieldProperties.xlsx
+++ b/ShieldProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/340ce7d50b8be808/Documents/4th year/GDP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/340ce7d50b8be808/Documents/4th year/GDP/Space-Shield-GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{D3115628-3893-4B4A-B0C9-CC819B420DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="1635" windowWidth="18465" windowHeight="9180" activeTab="2" xr2:uid="{B6949EC2-AF5B-451F-98AE-8192F768DFD8}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{B6949EC2-AF5B-451F-98AE-8192F768DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Whipple" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9572440E-8225-4077-9F34-027A80184124}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A937E40-EF21-4254-8B70-3DBC2FC40B5D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
